--- a/消息列表-模块汇总(1).xlsx
+++ b/消息列表-模块汇总(1).xlsx
@@ -2338,11 +2338,11 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>您的联系人XXX被转移了，AAA将它转移给BBBB（XXX是联系人名称，AAA是操作人，BBB是接收者）</t>
+    <t>您的联系人XXX被AAA删除了（XXX是联系人名称，AAA是操作人）</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>您的联系人XXX被AAA删除了（XXX是联系人名称，AAA是操作人）</t>
+    <t xml:space="preserve">您的联系人XXX被转移了，AAA将它转移给BBBB（XXX是联系人名称，AAA是操作人，BBB是接收者） </t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -2808,7 +2808,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2846,7 +2846,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2884,7 +2884,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2922,7 +2922,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2960,7 +2960,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5670,7 +5670,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5733,7 +5733,7 @@
         <v>345</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D3" s="50" t="s">
         <v>239</v>
@@ -5787,7 +5787,7 @@
         <v>338</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>239</v>
